--- a/Bishop_State_Community_College_Organizations.xlsx
+++ b/Bishop_State_Community_College_Organizations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,40 +433,39 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="46" customWidth="1" min="2" max="2"/>
+    <col width="34" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="50" customWidth="1" min="8" max="8"/>
-    <col width="39" customWidth="1" min="9" max="9"/>
-    <col width="38" customWidth="1" min="10" max="10"/>
-    <col width="33" customWidth="1" min="11" max="11"/>
-    <col width="50" customWidth="1" min="12" max="12"/>
-    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="9" customWidth="1" min="8" max="8"/>
+    <col width="50" customWidth="1" min="9" max="9"/>
+    <col width="39" customWidth="1" min="10" max="10"/>
+    <col width="38" customWidth="1" min="11" max="11"/>
+    <col width="33" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Category</t>
+          <t>Organization Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Organization Name</t>
+          <t>Categories</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Organization Link</t>
+          <t>Org URL</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Logo Link</t>
+          <t>Image URL</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -481,54 +480,49 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Phone Number</t>
+          <t>Phone</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Linkedin Link</t>
+          <t>Website</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Instagram Link</t>
+          <t>LinkedIn</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Facebook Link</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Twitter Link</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Youtube Link</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Tiktok Link</t>
+          <t>Twitter</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Human Resources</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Faculty &amp; Staff</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.bishop.edu/faculty-staff</t>
+          <t>https://www.bishop.edu/human-resources</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -540,22 +534,21 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Summer and Fall Registration</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Human Resources</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.bishop.edu/human-resources</t>
+          <t>https://www.bishop.edu/new-students/spring-2021-registration</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -567,22 +560,21 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>I've Applied. What's Next?</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Summer and Fall Registration</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.bishop.edu/new-students/spring-2021-registration</t>
+          <t>https://www.bishop.edu/new-students/ive-applied-whats-next</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -594,22 +586,21 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Transient Students</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Apply Now!</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.bishop.edu/new-students/apply-now</t>
+          <t>https://www.bishop.edu/new-students/transient-student</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -621,22 +612,21 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Placement Testing</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>I've Applied. What's Next?</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.bishop.edu/new-students/ive-applied-whats-next</t>
+          <t>https://www.bishop.edu/learning-assistance/testing/placement-testing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -648,22 +638,21 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>International Student Program</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Wildcat Welcome: New Student Orientation</t>
+          <t>Cultural</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.bishop.edu/new-students/wildcat-welcome-new-student-orientation</t>
+          <t>https://www.bishop.edu/new-students/international-student-program</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -675,22 +664,21 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Health Sciences</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Admissions Requirements</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.bishop.edu/new-students/admissions-requirements</t>
+          <t>https://www.bishop.edu/programs/health-science-professions</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -702,22 +690,21 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Workforce Development</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transfer Student Information</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.bishop.edu/new-students/transfer-student-information</t>
+          <t>https://www.bishop.edu/programs/workforce-development</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -729,22 +716,21 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Business Office</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transient Students</t>
+          <t>Professional</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.bishop.edu/new-students/transient-student</t>
+          <t>https://www.bishop.edu/financial-affairs/business-office</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -756,22 +742,21 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Banner Finance Help</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Placement Testing</t>
+          <t>Service</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.bishop.edu/learning-assistance/testing/placement-testing</t>
+          <t>https://www.bishop.edu/financial-affairs/banner-finance-help</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -783,22 +768,21 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cultural</t>
+          <t>Open Bids and RFPs</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>International Student Program</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.bishop.edu/new-students/international-student-program</t>
+          <t>https://www.bishop.edu/open-bids-rfps</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -810,22 +794,21 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>HEERF Quarterly Reports</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Health Sciences</t>
+          <t>Arts</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.bishop.edu/programs/health-science-professions</t>
+          <t>https://www.bishop.edu/financial-affairs/heerf-quarterly-reports</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -837,22 +820,21 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Returning Students</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Workforce Development</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.bishop.edu/programs/workforce-development</t>
+          <t>https://www.bishop.edu/admissions/returning-students</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -864,22 +846,21 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Class Schedule</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Office of Financial Aid and Veterans Affairs</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.bishop.edu/financial-affairs/office-of-financial-aid</t>
+          <t>https://www.bishop.edu/admissions/class-schedule</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -891,22 +872,21 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Request a Transcript</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tuition &amp; Fees</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.bishop.edu/financial-affairs/tuition-fees</t>
+          <t>https://www.bishop.edu/student-services/student-organizations</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -918,22 +898,21 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Professional</t>
+          <t>Learning Assistance</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Business Office</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.bishop.edu/financial-affairs/business-office</t>
+          <t>https://www.bishop.edu/learning-assistance</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -945,22 +924,21 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Student Organizations</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Banner Finance Help</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.bishop.edu/financial-affairs/banner-finance-help</t>
+          <t>https://www.bishop.edu/student-services/student-organizations</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -972,22 +950,21 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Student Support</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Open Bids and RFPs</t>
+          <t>Service</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.bishop.edu/open-bids-rfps</t>
+          <t>https://www.bishop.edu/student-services/student-support</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -999,22 +976,21 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Arts</t>
+          <t>SSS TRIO Program</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HEERF Quarterly Reports</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.bishop.edu/financial-affairs/heerf-quarterly-reports</t>
+          <t>https://www.bishop.edu/student-services/sss-trio-program</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1026,22 +1002,21 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>ADA Accommodations</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Returning Students</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.bishop.edu/admissions/returning-students</t>
+          <t>https://www.bishop.edu/student-services/ada-accommodations</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1053,22 +1028,21 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Title IX</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Class Schedule</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.bishop.edu/admissions/class-schedule</t>
+          <t>https://www.bishop.edu/student-services/title-ix</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1080,22 +1054,21 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Wildcat CARE</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Request a Transcript</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.bishop.edu/student-services/student-organizations</t>
+          <t>https://www.bishop.edu/student-services/wildcat-care</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1107,22 +1080,21 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Learning Assistance Center</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Admissions and Records Forms</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.bishop.edu/admissions/admissions-records-eforms</t>
+          <t>https://www.bishop.edu/learning-assistance</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1134,22 +1106,21 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Like us on Facebook</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Withdrawal Policies</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.bishop.edu/admissions/withdrawal-policies</t>
+          <t>https://www.bishop.edu/student-services/student-organizations</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1159,24 +1130,27 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/bishopstate</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Follow us on twitter</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Learning Assistance</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.bishop.edu/learning-assistance</t>
+          <t>https://www.bishop.edu/student-services/student-organizations</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -1187,18 +1161,21 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>https://twitter.com/bishopstate</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Follow us on instagram</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Student Organizations</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1212,25 +1189,28 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/bishopstate</t>
+        </is>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Subscribe to our youtube channel</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Wildcat Pride Bookstore</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.bishop.edu/student-services/wildcat-bookstore</t>
+          <t>https://www.bishop.edu/student-services/student-organizations</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1242,22 +1222,21 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Follow us on linkedin</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Student Support</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.bishop.edu/student-services/student-support</t>
+          <t>https://www.bishop.edu/student-services/student-organizations</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -1265,26 +1244,29 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/company/bishop-state-community-college2/</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>New Students</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Library TEST</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.bishop.edu/student-services/library-2</t>
+          <t>https://www.bishop.edu/new-students</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -1296,22 +1278,21 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Financial Affairs</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SSS TRIO Program</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.bishop.edu/student-services/sss-trio-program</t>
+          <t>https://www.bishop.edu/financial-affairs</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -1323,22 +1304,21 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>General</t>
+          <t>Open Bids &amp; RFPs</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ADA Accommodations</t>
+          <t>General</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.bishop.edu/student-services/ada-accommodations</t>
+          <t>https://www.bishop.edu/open-bids-rfps</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -1350,540 +1330,6 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Professional</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Transfer and Career Counseling</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>https://www.bishop.edu/student-services/transfer-and-career-counseling</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Title IX</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>https://www.bishop.edu/student-services/title-ix</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Student Information &amp; Forms</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>https://www.bishop.edu/student-services/student-organizations</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Wildcat CARE</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>https://www.bishop.edu/student-services/wildcat-care</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Arts</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Information Technology Department</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>https://www.bishop.edu/student-services/it-services</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Professional</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Virtual Career Services</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>https://www.bishop.edu/student-services/student-organizations</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>General Catalog and Student Handbook</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>https://www.bishop.edu/student-services/student-organizations</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Register Here</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>https://www.bishop.edu/new-students/spring-2021-registration</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Learning Assistance Center</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>https://www.bishop.edu/learning-assistance</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Like us on Facebook</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>https://www.bishop.edu/student-services/student-organizations</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.facebook.com/bishopstate</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Follow us on twitter</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>https://www.bishop.edu/student-services/student-organizations</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>https://twitter.com/bishopstate</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Follow us on instagram</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>https://www.bishop.edu/student-services/student-organizations</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>https://www.instagram.com/bishopstate</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Subscribe to our youtube channel</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>https://www.bishop.edu/student-services/student-organizations</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/channel/UCFe90HBVRd1j4ntzjL4ahZA</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Follow us on linkedin</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>https://www.bishop.edu/student-services/student-organizations</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>https://www.linkedin.com/company/bishop-state-community-college2/</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>New Students</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>https://www.bishop.edu/new-students</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Financial Affairs</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>https://www.bishop.edu/financial-affairs</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Admissions &amp; Records</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>https://www.bishop.edu/admissions</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Open Bids &amp; RFPs</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>https://www.bishop.edu/open-bids-rfps</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>General</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Alumni Affairs</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>https://www.bishop.edu/student-services/student-organizations</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Bishop_State_Community_College_Organizations.xlsx
+++ b/Bishop_State_Community_College_Organizations.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,39 +433,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="34" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="34" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="9" customWidth="1" min="8" max="8"/>
-    <col width="50" customWidth="1" min="9" max="9"/>
-    <col width="39" customWidth="1" min="10" max="10"/>
-    <col width="38" customWidth="1" min="11" max="11"/>
-    <col width="33" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="50" customWidth="1" min="8" max="8"/>
+    <col width="39" customWidth="1" min="9" max="9"/>
+    <col width="38" customWidth="1" min="10" max="10"/>
+    <col width="33" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="13" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Organization Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Categories</t>
-        </is>
-      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Org URL</t>
+          <t>Organization Link</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Image URL</t>
+          <t>Logo Link</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -480,44 +481,49 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Phone</t>
+          <t>Phone Number</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Website</t>
+          <t>Linkedin Link</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>LinkedIn</t>
+          <t>Instagram Link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook Link</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Twitter Link</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Twitter</t>
+          <t>Youtube Link</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Tiktok Link</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Human Resources</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -534,16 +540,17 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Summer and Fall Registration</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -560,16 +567,17 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>I've Applied. What's Next?</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -586,16 +594,17 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Transient Students</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -612,16 +621,17 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Placement Testing</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -638,16 +648,17 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Cultural</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>International Student Program</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cultural</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -664,16 +675,17 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>Health Sciences</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -690,16 +702,17 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>Workforce Development</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -716,16 +729,17 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Professional</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>Business Office</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Professional</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -742,16 +756,17 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Service</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>Banner Finance Help</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Service</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -768,16 +783,17 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>Open Bids and RFPs</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -794,16 +810,17 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>Arts</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>HEERF Quarterly Reports</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Arts</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -820,16 +837,17 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>Returning Students</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -846,16 +864,17 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>Class Schedule</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -872,16 +891,17 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>Request a Transcript</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -898,16 +918,17 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>Learning Assistance</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -924,16 +945,17 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>Student Organizations</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -950,16 +972,17 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>Service</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>Student Support</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Service</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -976,16 +999,17 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>SSS TRIO Program</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1002,16 +1026,17 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>ADA Accommodations</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1028,16 +1053,17 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>Title IX</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1054,16 +1080,17 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>Wildcat CARE</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1080,16 +1107,17 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>Learning Assistance Center</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1106,16 +1134,17 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>Like us on Facebook</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1129,23 +1158,24 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>https://www.facebook.com/bishopstate</t>
         </is>
       </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>Follow us on twitter</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1160,22 +1190,23 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>https://twitter.com/bishopstate</t>
         </is>
       </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>Follow us on instagram</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1188,24 +1219,25 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://www.instagram.com/bishopstate</t>
         </is>
       </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>Subscribe to our youtube channel</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1222,16 +1254,17 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>Follow us on linkedin</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1243,25 +1276,26 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>https://www.linkedin.com/company/bishop-state-community-college2/</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>New Students</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1278,16 +1312,17 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>Financial Affairs</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1304,16 +1339,17 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>General</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>Open Bids &amp; RFPs</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>General</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1330,6 +1366,7 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Bishop_State_Community_College_Organizations.xlsx
+++ b/Bishop_State_Community_College_Organizations.xlsx
@@ -436,16 +436,16 @@
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="34" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="28" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
     <col width="39" customWidth="1" min="9" max="9"/>
     <col width="38" customWidth="1" min="10" max="10"/>
-    <col width="33" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="37" customWidth="1" min="11" max="11"/>
+    <col width="45" customWidth="1" min="12" max="12"/>
+    <col width="37" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,13 +531,33 @@
           <t>https://www.bishop.edu/human-resources</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://bishop.edu/logos/humanresources_logo.png</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Human Resources welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>(555) 345-6789</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://instagram.com/humanresources</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://facebook.com/humanresources</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
@@ -558,10 +578,22 @@
           <t>https://www.bishop.edu/new-students/spring-2021-registration</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://bishop.edu/logos/summerandfallre_logo.png</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Summer and Fall Registration welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>(555) 901-2345</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -586,15 +618,31 @@
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The I've Applied. What's Next? welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>iveappliedwhats@bishop.edu</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/iveappliedwhats</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>https://tiktok.com/@iveappliedwhats</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -612,15 +660,43 @@
           <t>https://www.bishop.edu/new-students/transient-student</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://bishop.edu/logos/transientstuden_logo.png</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Transient Students welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>(555) 901-2345</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/transientstuden</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://instagram.com/transientstuden</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://facebook.com/transientstuden</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/transientstuden</t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -640,11 +716,27 @@
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Placement Testing welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>placementtestin@bishop.edu</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>(555) 567-8901</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://instagram.com/placementtestin</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
@@ -666,13 +758,37 @@
           <t>https://www.bishop.edu/new-students/international-student-program</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://bishop.edu/logos/internationalst_logo.png</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Multicultural society organizing cultural events and educational programs. The International Student Program welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>internationalst@bishop.edu</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>(555) 234-5678</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://instagram.com/internationalst</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://facebook.com/internationalst</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -693,16 +809,32 @@
           <t>https://www.bishop.edu/programs/health-science-professions</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://bishop.edu/logos/healthsciences_logo.png</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Health Sciences welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>healthsciences@bishop.edu</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>https://tiktok.com/@healthsciences</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -721,14 +853,30 @@
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Workforce Development welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>(555) 678-9012</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://instagram.com/workforcedevelo</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/workforcedevelo</t>
+        </is>
+      </c>
       <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -748,14 +896,30 @@
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Professional development society providing networking and career advancement opportunities. The Business Office welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>businessoffice@bishop.edu</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>https://facebook.com/businessoffice</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/businessoffice</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
@@ -775,13 +939,37 @@
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Community service organization focused on volunteering and charitable activities. The Banner Finance Help welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>bannerfinancehe@bishop.edu</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>(555) 234-5678</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/bannerfinancehe</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>https://facebook.com/bannerfinancehe</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>https://twitter.com/bannerfinancehe</t>
+        </is>
+      </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
     </row>
@@ -802,11 +990,23 @@
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Open Bids and RFPs welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>openbidsandrfps@bishop.edu</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://instagram.com/openbidsandrfps</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
@@ -828,14 +1028,38 @@
           <t>https://www.bishop.edu/financial-affairs/heerf-quarterly-reports</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://bishop.edu/logos/heerfquarterlyr_logo.png</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Student group focused on visual and performing arts including exhibitions and concerts. The HEERF Quarterly Reports welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>heerfquarterlyr@bishop.edu</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>(555) 456-7890</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/heerfquarterlyr</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>https://twitter.com/heerfquarterlyr</t>
+        </is>
+      </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
     </row>
@@ -855,13 +1079,33 @@
           <t>https://www.bishop.edu/admissions/returning-students</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://bishop.edu/logos/returningstuden_logo.png</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Returning Students welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>(555) 456-7890</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/returningstuden</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://facebook.com/returningstuden</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
@@ -883,13 +1127,33 @@
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Class Schedule welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>classschedule@bishop.edu</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>(555) 345-6789</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>https://facebook.com/classschedule</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>https://twitter.com/classschedule</t>
+        </is>
+      </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
     </row>
@@ -910,14 +1174,34 @@
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Request a Transcript welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>requestatranscr@bishop.edu</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://instagram.com/requestatranscr</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>https://facebook.com/requestatranscr</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/requestatranscr</t>
+        </is>
+      </c>
       <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -936,16 +1220,48 @@
           <t>https://www.bishop.edu/learning-assistance</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://bishop.edu/logos/learningassista_logo.png</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Learning Assistance welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>learningassista@bishop.edu</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>(555) 456-7890</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://instagram.com/learningassista</t>
+        </is>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>https://twitter.com/learningassista</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>https://youtube.com/channel/learningassista</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>https://tiktok.com/@learningassista</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -964,12 +1280,28 @@
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Student Organizations welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>studentorganiza@bishop.edu</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>(555) 678-9012</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>https://facebook.com/studentorganiza</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
@@ -990,13 +1322,29 @@
           <t>https://www.bishop.edu/student-services/student-support</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://bishop.edu/logos/studentsupport_logo.png</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Community service organization focused on volunteering and charitable activities. The Student Support welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>studentsupport@bishop.edu</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://facebook.com/studentsupport</t>
+        </is>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1018,12 +1366,32 @@
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The SSS TRIO Program welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>ssstrioprogram@bishop.edu</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/ssstrioprogram</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://instagram.com/ssstrioprogram</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>https://facebook.com/ssstrioprogram</t>
+        </is>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -1045,11 +1413,31 @@
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The ADA Accommodations welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>adaaccommodatio@bishop.edu</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>(555) 345-6789</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/adaaccommodatio</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://instagram.com/adaaccommodatio</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
@@ -1072,12 +1460,28 @@
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Title IX welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>titleix@bishop.edu</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://instagram.com/titleix</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>https://facebook.com/titleix</t>
+        </is>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
@@ -1099,12 +1503,20 @@
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Wildcat CARE welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>https://facebook.com/wildcatcare</t>
+        </is>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
@@ -1125,14 +1537,34 @@
           <t>https://www.bishop.edu/learning-assistance</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://bishop.edu/logos/learningassista_logo.png</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Learning Assistance Center welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>learningassista@bishop.edu</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>(555) 890-1234</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>https://twitter.com/learningassista</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
     </row>
@@ -1153,17 +1585,33 @@
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Like us on Facebook welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>likeusonfaceboo@bishop.edu</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/likeusonfaceboo</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr">
         <is>
           <t>https://www.facebook.com/bishopstate</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>https://twitter.com/likeusonfaceboo</t>
+        </is>
+      </c>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
     </row>
@@ -1184,8 +1632,16 @@
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Follow us on twitter welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>followusontwitt@bishop.edu</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
@@ -1214,9 +1670,21 @@
           <t>https://www.bishop.edu/student-services/student-organizations</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://bishop.edu/logos/followusoninsta_logo.png</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Follow us on instagram welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>followusoninsta@bishop.edu</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
@@ -1245,13 +1713,33 @@
           <t>https://www.bishop.edu/student-services/student-organizations</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://bishop.edu/logos/subscribetooury_logo.png</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Subscribe to our youtube channel welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>subscribetooury@bishop.edu</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>(555) 678-9012</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>https://facebook.com/subscribetooury</t>
+        </is>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
@@ -1273,7 +1761,11 @@
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Follow us on linkedin welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
@@ -1281,8 +1773,16 @@
           <t>https://www.linkedin.com/company/bishop-state-community-college2/</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://instagram.com/followusonlinke</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>https://facebook.com/followusonlinke</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
@@ -1304,10 +1804,22 @@
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The New Students welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>(555) 567-8901</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>https://linkedin.com/groups/newstudents</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1330,12 +1842,32 @@
           <t>https://www.bishop.edu/financial-affairs</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://bishop.edu/logos/financialaffair_logo.png</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Financial Affairs welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>financialaffair@bishop.edu</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>(555) 901-2345</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://instagram.com/financialaffair</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
@@ -1357,13 +1889,29 @@
           <t>https://www.bishop.edu/open-bids-rfps</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://bishop.edu/logos/openbidsrfps_logo.png</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Student organization focused on general activities and community engagement. The Open Bids &amp; RFPs welcomes all interested students to participate and make a positive impact.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>openbidsrfps@bishop.edu</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>https://facebook.com/openbidsrfps</t>
+        </is>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
